--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA046DEF-A3C7-4A33-BD81-5971F7393007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5670772-C59B-4EED-A709-C9C55A8E7128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,25 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Hi, *Important Text*: Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
   </si>
   <si>
-    <t>Hi, *Important Text*: Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>yashit arora</t>
+  </si>
+  <si>
+    <t>example@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -56,10 +73,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -75,11 +93,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -87,6 +112,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -110,9 +139,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A4" totalsRowShown="0" dataDxfId="4">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0" dataDxfId="5">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{119F5D5E-6BBF-436C-9093-C0AC6FB5EC44}" name="Email" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -451,7 +481,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,36 +493,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
-      <c r="B1"/>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>9818885504</v>
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>9050418241</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DE608E6E-FF0D-420E-BF9A-C041C8896EE9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>